--- a/Exceli_Veritani_Olarak_Kullanma/Belge.xlsx
+++ b/Exceli_Veritani_Olarak_Kullanma/Belge.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,6 +95,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +412,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B95C781-F62F-44C3-994C-D8B6A88BAC15}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{2B95C781-F62F-44C3-994C-D8B6A88BAC15}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -420,7 +424,7 @@
     <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row spans="1:2" ht="15.75" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -428,47 +432,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="1">
-        <v>0.84722222222222199</v>
+        <v>0.847222222222222</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" s="1">
-        <v>0.88888888888888895</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" s="1">
-        <v>0.93055555555555503</v>
+        <v>0.930555555555555</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" s="1">
-        <v>0.97222222222222199</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" s="1">
-        <v>1.0138888888888899</v>
+        <v>1.01388888888889</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7" s="1">
         <v>1.05555555555556</v>
       </c>
@@ -476,23 +480,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8" s="1">
-        <v>1.0972222222222201</v>
+        <v>1.09722222222222</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9" s="1">
-        <v>1.1388888888888899</v>
+        <v>1.13888888888889</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
       <c r="A10" s="1">
         <v>1.18055555555556</v>
       </c>
@@ -500,23 +504,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
       <c r="A11" s="1">
-        <v>1.2222222222222201</v>
+        <v>1.22222222222222</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
       <c r="A12" s="1">
-        <v>1.2638888888888899</v>
+        <v>1.26388888888889</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
       <c r="A13" s="1">
         <v>1.30555555555556</v>
       </c>
@@ -524,23 +528,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
       <c r="A14" s="1">
-        <v>1.3472222222222201</v>
+        <v>1.34722222222222</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
       <c r="A15" s="1">
-        <v>1.3888888888888899</v>
+        <v>1.38888888888889</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
       <c r="A16" s="1">
         <v>1.43055555555556</v>
       </c>
@@ -548,12 +552,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
       <c r="A17" s="1">
-        <v>1.4722222222222201</v>
+        <v>1.47222222222222</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Matematik</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Exceli_Veritani_Olarak_Kullanma/Belge.xlsx
+++ b/Exceli_Veritani_Olarak_Kullanma/Belge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yazilim\C#\Exceli_Veritani_Olarak_Kullanma\Exceli_Veritani_Olarak_Kullanma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C253F908-5FC1-4A45-8F2C-3226AA23929A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CFE6CF-0979-4A78-973A-ECE8F4903C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{8E617E5A-105A-4A2F-A488-68C7B45B3B53}"/>
   </bookViews>
@@ -36,21 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
-  <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>SAAT</t>
   </si>
   <si>
     <t>DERS</t>
+  </si>
+  <si>
+    <t>Matematik</t>
+  </si>
+  <si>
+    <t>Türkçe</t>
+  </si>
+  <si>
+    <t>İngilizce</t>
+  </si>
+  <si>
+    <t>Fizik</t>
+  </si>
+  <si>
+    <t>Kimya</t>
+  </si>
+  <si>
+    <t>Biyoloji</t>
+  </si>
+  <si>
+    <t>Beden Eğitimi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,14 +108,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,163 +429,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{2B95C781-F62F-44C3-994C-D8B6A88BAC15}">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B95C781-F62F-44C3-994C-D8B6A88BAC15}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row spans="1:2" ht="15.75" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.84722222222222199</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
-      <c r="A2" s="1">
-        <v>0.847222222222222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.888888888888889</v>
+        <v>0.88888888888888895</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.930555555555555</v>
+        <v>0.93055555555555503</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.972222222222222</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>1.01388888888889</v>
+        <v>1.0138888888888899</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1.05555555555556</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1.09722222222222</v>
+        <v>1.0972222222222201</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
-      <c r="A9" s="1">
-        <v>1.13888888888889</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>0.5</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
-      <c r="A10" s="1">
-        <v>1.18055555555556</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
-      <c r="A11" s="1">
-        <v>1.22222222222222</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
-      <c r="A12" s="1">
-        <v>1.26388888888889</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
-      <c r="A13" s="1">
-        <v>1.30555555555556</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
-      <c r="A14" s="1">
-        <v>1.34722222222222</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
-      <c r="A15" s="1">
-        <v>1.38888888888889</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
-      <c r="A16" s="1">
-        <v>1.43055555555556</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
-      <c r="A17" s="1">
-        <v>1.47222222222222</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="18">
-      <c r="A18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>Matematik</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
